--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>安信鑫发优选混合</t>
   </si>
   <si>
+    <t>2.09</t>
+  </si>
+  <si>
     <t>78.93</t>
   </si>
   <si>
     <t>4.44</t>
+  </si>
+  <si>
+    <t>0.0928</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000433</t>
-  </si>
-  <si>
-    <t>安信鑫发优选混合</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>78.93</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>0.0928</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,796 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1488,7 +1489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,17 +1500,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1519,14 +1540,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.53</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1535,14 +1578,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1551,13 +1616,1009 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0928</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>001790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>国泰智能汽车股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5284</t>
+          <t>5.1207</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,948 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006072</t>
+          <t>001576</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银创新成长混合</t>
+          <t>国泰智能装备股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>44.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>2.3478</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +2407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,36 +2458,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票A</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1207</t>
+          <t>0.5284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1578,948 +2496,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>006072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>民生加银创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>83.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3478</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家内需增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3090</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2693</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0488</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9308</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8833</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010611</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7974</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011322</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰智能装备股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6962</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5288</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5025</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010612</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3150</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2601</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2446</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1312</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2533,96 +2539,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.76</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>16.76</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>13.53</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>58.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1207</t>
+          <t>3.6564</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3478</t>
+          <t>1.3777</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -691,26 +708,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3090</t>
+          <t>0.8844</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -729,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2693</t>
+          <t>0.8088</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -767,26 +784,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0488</t>
+          <t>0.7636</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -800,27 +817,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -833,36 +850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.4777</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -871,36 +888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7974</t>
+          <t>0.4501</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -909,32 +926,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>富国新材料新能源混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>87.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6962</t>
+          <t>0.3786</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -947,36 +964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5288</t>
+          <t>0.3134</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -985,36 +1002,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5025</t>
+          <t>0.2408</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1023,36 +1040,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>013004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>国泰价值领航股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3150</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1061,12 +1078,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>014243</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>富国新材料新能源混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1076,21 +1093,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>87.01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2601</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1099,36 +1116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>006234</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家汽车新趋势混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2446</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1137,36 +1154,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1312</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1175,36 +1192,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>015797</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>万家新能源主题混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1305</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1213,36 +1230,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>62.39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0617</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1261,26 +1278,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>61.89</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1289,36 +1306,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>011536</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>惠升惠益混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1327,36 +1344,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>015796</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>万家新能源主题混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1365,36 +1382,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008423</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融研发创新混合C</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>62.36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1403,36 +1420,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>62.36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1441,36 +1458,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>008423</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>中融研发创新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>61.89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1479,36 +1496,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>013005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>国泰价值领航股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1517,32 +1534,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>011537</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>惠升惠益混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1560,27 +1577,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1593,6 +1610,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2401,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2533,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002068-黑猫股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>10.87</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>16.76</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>13.53</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>58.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6564</t>
+          <t>3.2209</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3777</t>
+          <t>1.2473</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -708,22 +725,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8844</t>
+          <t>0.7644</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>011323</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>国泰智能汽车股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8088</t>
+          <t>0.7508</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011323</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票C</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7636</t>
+          <t>0.6114</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -822,22 +839,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7021</t>
+          <t>0.5174</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -850,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>006348</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>银华盛利混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4777</t>
+          <t>0.5031</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -898,26 +915,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4501</t>
+          <t>0.4778</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3786</t>
+          <t>0.3979</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -964,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>013004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>国泰价值领航股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3134</t>
+          <t>0.2870</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1002,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2408</t>
+          <t>0.2865</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1040,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013004</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰价值领航股票A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2397</t>
+          <t>0.2325</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1078,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014243</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合C</t>
+          <t>万家科创板 2 年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1628</t>
+          <t>0.1835</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1116,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.1668</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1154,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>006234</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家汽车新趋势混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1127</t>
+          <t>0.1579</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1192,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>015797</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家新能源主题混合C</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.0807</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1230,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>015684</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>银华盛利混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>62.39</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1268,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008422</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融研发创新混合A</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>61.89</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1306,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011536</t>
+          <t>001728</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>惠升惠益混合A</t>
+          <t>银华战略新兴灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1344,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>015796</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>万家新能源主题混合A</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1382,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>011536</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>惠升惠益混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>62.36</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1420,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>013005</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>国泰价值领航股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>62.36</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1458,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008423</t>
+          <t>011537</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融研发创新混合C</t>
+          <t>惠升惠益混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>61.89</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1496,111 +1513,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>013005</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰价值领航股票C</t>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011537</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>惠升惠益混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.48</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家科创主题灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1676,26 +1617,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>58.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1207</t>
+          <t>3.6564</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1714,26 +1655,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3478</t>
+          <t>1.3777</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1752,26 +1693,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3090</t>
+          <t>0.8844</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1790,26 +1731,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2693</t>
+          <t>0.8088</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1828,26 +1769,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0488</t>
+          <t>0.7636</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1861,27 +1802,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1894,36 +1835,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.4777</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1932,36 +1873,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7974</t>
+          <t>0.4501</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1970,32 +1911,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>富国新材料新能源混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>87.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6962</t>
+          <t>0.3786</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2008,36 +1949,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5288</t>
+          <t>0.3134</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2046,36 +1987,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5025</t>
+          <t>0.2408</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2084,36 +2025,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>013004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>国泰价值领航股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3150</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2122,12 +2063,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>014243</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>富国新材料新能源混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2137,21 +2078,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>87.01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2601</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2160,36 +2101,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>006234</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家汽车新趋势混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2446</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2198,36 +2139,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1312</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2236,36 +2177,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>015797</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>万家新能源主题混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1305</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2274,36 +2215,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>62.39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0617</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2322,26 +2263,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>61.89</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2350,36 +2291,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>011536</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>惠升惠益混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2388,36 +2329,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>015796</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>万家新能源主题混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2426,36 +2367,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008423</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融研发创新混合C</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>62.36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2464,36 +2405,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>62.36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2502,36 +2443,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>008423</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>中融研发创新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>61.89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2540,36 +2481,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>013005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>国泰价值领航股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2578,32 +2519,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>011537</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>惠升惠益混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2621,27 +2562,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2654,6 +2595,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3594,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
